--- a/學生成績單.xlsx
+++ b/學生成績單.xlsx
@@ -1031,27 +1031,27 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>王坤安</t>
+          <t>李政成</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E18" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F18" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G18" t="n">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="H18" t="n">
         <v>385</v>
@@ -1065,27 +1065,27 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>李政成</t>
+          <t>王坤安</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D19" t="n">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E19" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F19" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G19" t="n">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="H19" t="n">
         <v>385</v>
@@ -1133,27 +1133,27 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>方筠紹</t>
+          <t>蔡世馨</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F21" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G21" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H21" t="n">
         <v>378</v>
@@ -1167,27 +1167,27 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>蔡世馨</t>
+          <t>方筠紹</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E22" t="n">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F22" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G22" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="H22" t="n">
         <v>378</v>
@@ -1779,27 +1779,27 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>羅佩樺</t>
+          <t>郭淑真</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D40" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E40" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F40" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="G40" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H40" t="n">
         <v>350</v>
@@ -1813,27 +1813,27 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>郭淑真</t>
+          <t>羅佩樺</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D41" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E41" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F41" t="n">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="G41" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H41" t="n">
         <v>350</v>
